--- a/lista6/zad4e.xlsx
+++ b/lista6/zad4e.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDVirtual\Desktop\lab\lista6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{14AB7549-F833-466C-AFB2-6F12CDCE8A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78219DB6-36E9-4575-8A60-13B2D669EBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="14220" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="14220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wyk1" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,18 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="89" r:id="rId6"/>
-    <pivotCache cacheId="92" r:id="rId7"/>
-    <pivotCache cacheId="95" r:id="rId8"/>
-    <pivotCache cacheId="106" r:id="rId9"/>
-    <pivotCache cacheId="123" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
+    <pivotCache cacheId="7" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\HDVirtual\AppData\Local\Temp\tmpD43B.odc" keepAlive="1" name="localhost L6_Z4" type="5" refreshedVersion="7" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\HDVirtual\AppData\Local\Temp\tmpD43B.odc" keepAlive="1" name="localhost L6_Z4" type="5" refreshedVersion="7" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=L6_Z4;Data Source=localhost;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="AW_DW_2019_Cube" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1237,6 +1237,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="458679816"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4907,7 +4908,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4961,28 +4962,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>316</c:v>
+                  <c:v>829</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>127</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>951</c:v>
+                  <c:v>2510</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>188</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>138</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5002,7 +5003,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>110000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5056,28 +5057,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>272</c:v>
+                  <c:v>1142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>811</c:v>
+                  <c:v>3285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>161</c:v>
+                  <c:v>593</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5097,7 +5098,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>120000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5151,28 +5152,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>193</c:v>
+                  <c:v>1506</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>594</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>88</c:v>
+                  <c:v>802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5192,7 +5193,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>130000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5246,28 +5247,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>321</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>102</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>901</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>182</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>146</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5287,7 +5288,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>150000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5341,28 +5342,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>71</c:v>
+                  <c:v>1418</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>167</c:v>
+                  <c:v>4522</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5382,7 +5383,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>160000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5438,28 +5439,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>1415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171</c:v>
+                  <c:v>3954</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5479,7 +5480,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>170000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5535,28 +5536,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>86</c:v>
+                  <c:v>797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>191</c:v>
+                  <c:v>2464</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5576,7 +5577,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5632,28 +5633,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>829</c:v>
+                  <c:v>567</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>344</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>346</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2510</c:v>
+                  <c:v>1411</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>447</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>215</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>398</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5673,7 +5674,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5729,28 +5730,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1142</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>447</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>557</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3285</c:v>
+                  <c:v>951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>593</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>324</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>582</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5770,7 +5771,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5826,28 +5827,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1506</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>601</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>610</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4324</c:v>
+                  <c:v>811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>715</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>549</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>802</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5867,7 +5868,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5923,28 +5924,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>325</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>961</c:v>
+                  <c:v>594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>160</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5964,7 +5965,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>60000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6021,28 +6022,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1418</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>606</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4522</c:v>
+                  <c:v>901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>772</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>456</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>990</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6062,7 +6063,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>70000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6119,28 +6120,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1415</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>580</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>481</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3954</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>645</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>564</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>550</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6160,7 +6161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6217,28 +6218,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>797</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>311</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>307</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2464</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>342</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>288</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>293</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6258,7 +6259,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>90000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6315,28 +6316,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>567</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>216</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1411</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>272</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>213</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9490,7 +9491,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="HDVirtual" refreshedDate="44663.788431134257" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44663.788431134257" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF59000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Dim Product].[Color].[Color]" caption="Color" numFmtId="0" hierarchy="11" level="1">
@@ -9627,7 +9628,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="HDVirtual" refreshedDate="44663.788432638888" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44663.788432638888" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF5C000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
     <cacheField name="[Measures].[Unit Price]" caption="Unit Price" numFmtId="0" hierarchy="48" level="32767"/>
@@ -9856,7 +9857,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="HDVirtual" refreshedDate="44663.788433564812" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44663.788433564812" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF5F000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Dim Product].[Color].[Color]" caption="Color" numFmtId="0" hierarchy="11" level="1">
@@ -9990,7 +9991,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="HDVirtual" refreshedDate="44663.788871874996" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44663.788871874996" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF6A000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Dim Product].[Color].[Color]" caption="Color" numFmtId="0" hierarchy="11" level="1">
@@ -10123,7 +10124,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="HDVirtual" refreshedDate="44663.789578124997" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44664.026778819447" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF7B000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Order Quantity]" caption="Order Quantity" numFmtId="0" hierarchy="47" level="32767"/>
@@ -10270,7 +10271,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -10532,7 +10533,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="95" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A2:E12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -10726,7 +10727,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="89" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A2:H12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -10968,7 +10969,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A2:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -11146,7 +11147,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="123" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A2:R12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -11162,16 +11163,9 @@
         <item x="7"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="16">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
@@ -11180,6 +11174,13 @@
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -11294,7 +11295,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -11306,7 +11307,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -11318,7 +11319,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="3"/>
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
@@ -11330,7 +11331,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="12"/>
           </reference>
         </references>
       </pivotArea>
@@ -11342,7 +11343,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="5"/>
+            <x v="13"/>
           </reference>
         </references>
       </pivotArea>
@@ -11354,7 +11355,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="6"/>
+            <x v="14"/>
           </reference>
         </references>
       </pivotArea>
@@ -11366,7 +11367,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="7"/>
+            <x v="15"/>
           </reference>
         </references>
       </pivotArea>
@@ -11378,7 +11379,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="8"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -11390,7 +11391,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="9"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -11402,7 +11403,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="10"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -11414,7 +11415,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="11"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -11426,7 +11427,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="12"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -11438,7 +11439,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="13"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -11450,7 +11451,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="14"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -11462,7 +11463,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="15"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -11843,7 +11844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11956,7 +11957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12143,7 +12144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12436,7 +12437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12606,19 +12607,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12638,49 +12639,49 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="P3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="Q3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>40</v>
       </c>
       <c r="R3" t="s">
         <v>3</v>
@@ -12694,49 +12695,49 @@
         <v>521</v>
       </c>
       <c r="C4" s="1">
+        <v>829</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1142</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1506</v>
+      </c>
+      <c r="F4" s="1">
+        <v>325</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1418</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1415</v>
+      </c>
+      <c r="I4" s="1">
+        <v>797</v>
+      </c>
+      <c r="J4" s="1">
+        <v>567</v>
+      </c>
+      <c r="K4" s="1">
         <v>316</v>
       </c>
-      <c r="D4" s="1">
+      <c r="L4" s="1">
         <v>272</v>
       </c>
-      <c r="E4" s="1">
+      <c r="M4" s="1">
         <v>193</v>
       </c>
-      <c r="F4" s="1">
+      <c r="N4" s="1">
         <v>321</v>
       </c>
-      <c r="G4" s="1">
+      <c r="O4" s="1">
         <v>71</v>
       </c>
-      <c r="H4" s="1">
+      <c r="P4" s="1">
         <v>64</v>
       </c>
-      <c r="I4" s="1">
+      <c r="Q4" s="1">
         <v>86</v>
-      </c>
-      <c r="J4" s="1">
-        <v>829</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1142</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1506</v>
-      </c>
-      <c r="M4" s="1">
-        <v>325</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1418</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1415</v>
-      </c>
-      <c r="P4" s="1">
-        <v>797</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>567</v>
       </c>
       <c r="R4" s="1">
         <v>9843</v>
@@ -12750,49 +12751,49 @@
         <v>191</v>
       </c>
       <c r="C5" s="1">
+        <v>344</v>
+      </c>
+      <c r="D5" s="1">
+        <v>447</v>
+      </c>
+      <c r="E5" s="1">
+        <v>601</v>
+      </c>
+      <c r="F5" s="1">
+        <v>146</v>
+      </c>
+      <c r="G5" s="1">
+        <v>600</v>
+      </c>
+      <c r="H5" s="1">
+        <v>580</v>
+      </c>
+      <c r="I5" s="1">
+        <v>311</v>
+      </c>
+      <c r="J5" s="1">
+        <v>216</v>
+      </c>
+      <c r="K5" s="1">
         <v>127</v>
       </c>
-      <c r="D5" s="1">
+      <c r="L5" s="1">
         <v>120</v>
       </c>
-      <c r="E5" s="1">
+      <c r="M5" s="1">
         <v>74</v>
       </c>
-      <c r="F5" s="1">
+      <c r="N5" s="1">
         <v>135</v>
       </c>
-      <c r="G5" s="1">
+      <c r="O5" s="1">
         <v>23</v>
       </c>
-      <c r="H5" s="1">
+      <c r="P5" s="1">
         <v>18</v>
       </c>
-      <c r="I5" s="1">
+      <c r="Q5" s="1">
         <v>37</v>
-      </c>
-      <c r="J5" s="1">
-        <v>344</v>
-      </c>
-      <c r="K5" s="1">
-        <v>447</v>
-      </c>
-      <c r="L5" s="1">
-        <v>601</v>
-      </c>
-      <c r="M5" s="1">
-        <v>146</v>
-      </c>
-      <c r="N5" s="1">
-        <v>600</v>
-      </c>
-      <c r="O5" s="1">
-        <v>580</v>
-      </c>
-      <c r="P5" s="1">
-        <v>311</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>216</v>
       </c>
       <c r="R5" s="1">
         <v>3970</v>
@@ -12806,49 +12807,49 @@
         <v>218</v>
       </c>
       <c r="C6" s="1">
+        <v>346</v>
+      </c>
+      <c r="D6" s="1">
+        <v>557</v>
+      </c>
+      <c r="E6" s="1">
+        <v>610</v>
+      </c>
+      <c r="F6" s="1">
+        <v>135</v>
+      </c>
+      <c r="G6" s="1">
+        <v>606</v>
+      </c>
+      <c r="H6" s="1">
+        <v>481</v>
+      </c>
+      <c r="I6" s="1">
+        <v>307</v>
+      </c>
+      <c r="J6" s="1">
+        <v>177</v>
+      </c>
+      <c r="K6" s="1">
         <v>113</v>
       </c>
-      <c r="D6" s="1">
+      <c r="L6" s="1">
         <v>102</v>
       </c>
-      <c r="E6" s="1">
+      <c r="M6" s="1">
         <v>75</v>
       </c>
-      <c r="F6" s="1">
+      <c r="N6" s="1">
         <v>102</v>
       </c>
-      <c r="G6" s="1">
+      <c r="O6" s="1">
         <v>30</v>
       </c>
-      <c r="H6" s="1">
+      <c r="P6" s="1">
         <v>24</v>
       </c>
-      <c r="I6" s="1">
+      <c r="Q6" s="1">
         <v>43</v>
-      </c>
-      <c r="J6" s="1">
-        <v>346</v>
-      </c>
-      <c r="K6" s="1">
-        <v>557</v>
-      </c>
-      <c r="L6" s="1">
-        <v>610</v>
-      </c>
-      <c r="M6" s="1">
-        <v>135</v>
-      </c>
-      <c r="N6" s="1">
-        <v>606</v>
-      </c>
-      <c r="O6" s="1">
-        <v>481</v>
-      </c>
-      <c r="P6" s="1">
-        <v>307</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>177</v>
       </c>
       <c r="R6" s="1">
         <v>3926</v>
@@ -12862,49 +12863,49 @@
         <v>1702</v>
       </c>
       <c r="C7" s="1">
+        <v>2510</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3285</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4324</v>
+      </c>
+      <c r="F7" s="1">
+        <v>961</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4522</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3954</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2464</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1411</v>
+      </c>
+      <c r="K7" s="1">
         <v>951</v>
       </c>
-      <c r="D7" s="1">
+      <c r="L7" s="1">
         <v>811</v>
       </c>
-      <c r="E7" s="1">
+      <c r="M7" s="1">
         <v>594</v>
       </c>
-      <c r="F7" s="1">
+      <c r="N7" s="1">
         <v>901</v>
       </c>
-      <c r="G7" s="1">
+      <c r="O7" s="1">
         <v>167</v>
       </c>
-      <c r="H7" s="1">
+      <c r="P7" s="1">
         <v>171</v>
       </c>
-      <c r="I7" s="1">
+      <c r="Q7" s="1">
         <v>191</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2510</v>
-      </c>
-      <c r="K7" s="1">
-        <v>3285</v>
-      </c>
-      <c r="L7" s="1">
-        <v>4324</v>
-      </c>
-      <c r="M7" s="1">
-        <v>961</v>
-      </c>
-      <c r="N7" s="1">
-        <v>4522</v>
-      </c>
-      <c r="O7" s="1">
-        <v>3954</v>
-      </c>
-      <c r="P7" s="1">
-        <v>2464</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1411</v>
       </c>
       <c r="R7" s="1">
         <v>28919</v>
@@ -12918,49 +12919,49 @@
         <v>273</v>
       </c>
       <c r="C8" s="1">
+        <v>447</v>
+      </c>
+      <c r="D8" s="1">
+        <v>593</v>
+      </c>
+      <c r="E8" s="1">
+        <v>715</v>
+      </c>
+      <c r="F8" s="1">
+        <v>136</v>
+      </c>
+      <c r="G8" s="1">
+        <v>772</v>
+      </c>
+      <c r="H8" s="1">
+        <v>645</v>
+      </c>
+      <c r="I8" s="1">
+        <v>342</v>
+      </c>
+      <c r="J8" s="1">
+        <v>272</v>
+      </c>
+      <c r="K8" s="1">
         <v>188</v>
       </c>
-      <c r="D8" s="1">
+      <c r="L8" s="1">
         <v>161</v>
       </c>
-      <c r="E8" s="1">
+      <c r="M8" s="1">
         <v>118</v>
       </c>
-      <c r="F8" s="1">
+      <c r="N8" s="1">
         <v>182</v>
       </c>
-      <c r="G8" s="1">
+      <c r="O8" s="1">
         <v>34</v>
       </c>
-      <c r="H8" s="1">
+      <c r="P8" s="1">
         <v>29</v>
       </c>
-      <c r="I8" s="1">
+      <c r="Q8" s="1">
         <v>42</v>
-      </c>
-      <c r="J8" s="1">
-        <v>447</v>
-      </c>
-      <c r="K8" s="1">
-        <v>593</v>
-      </c>
-      <c r="L8" s="1">
-        <v>715</v>
-      </c>
-      <c r="M8" s="1">
-        <v>136</v>
-      </c>
-      <c r="N8" s="1">
-        <v>772</v>
-      </c>
-      <c r="O8" s="1">
-        <v>645</v>
-      </c>
-      <c r="P8" s="1">
-        <v>342</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>272</v>
       </c>
       <c r="R8" s="1">
         <v>4949</v>
@@ -12974,49 +12975,49 @@
         <v>184</v>
       </c>
       <c r="C9" s="1">
+        <v>215</v>
+      </c>
+      <c r="D9" s="1">
+        <v>324</v>
+      </c>
+      <c r="E9" s="1">
+        <v>549</v>
+      </c>
+      <c r="F9" s="1">
+        <v>101</v>
+      </c>
+      <c r="G9" s="1">
+        <v>456</v>
+      </c>
+      <c r="H9" s="1">
+        <v>564</v>
+      </c>
+      <c r="I9" s="1">
+        <v>288</v>
+      </c>
+      <c r="J9" s="1">
+        <v>213</v>
+      </c>
+      <c r="K9" s="1">
         <v>104</v>
       </c>
-      <c r="D9" s="1">
+      <c r="L9" s="1">
         <v>109</v>
       </c>
-      <c r="E9" s="1">
+      <c r="M9" s="1">
         <v>87</v>
       </c>
-      <c r="F9" s="1">
+      <c r="N9" s="1">
         <v>146</v>
       </c>
-      <c r="G9" s="1">
+      <c r="O9" s="1">
         <v>27</v>
       </c>
-      <c r="H9" s="1">
+      <c r="P9" s="1">
         <v>19</v>
       </c>
-      <c r="I9" s="1">
+      <c r="Q9" s="1">
         <v>38</v>
-      </c>
-      <c r="J9" s="1">
-        <v>215</v>
-      </c>
-      <c r="K9" s="1">
-        <v>324</v>
-      </c>
-      <c r="L9" s="1">
-        <v>549</v>
-      </c>
-      <c r="M9" s="1">
-        <v>101</v>
-      </c>
-      <c r="N9" s="1">
-        <v>456</v>
-      </c>
-      <c r="O9" s="1">
-        <v>564</v>
-      </c>
-      <c r="P9" s="1">
-        <v>288</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>213</v>
       </c>
       <c r="R9" s="1">
         <v>3424</v>
@@ -13030,49 +13031,49 @@
         <v>32</v>
       </c>
       <c r="C10" s="1">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1">
+        <v>74</v>
+      </c>
+      <c r="F10" s="1">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1">
+        <v>106</v>
+      </c>
+      <c r="H10" s="1">
+        <v>78</v>
+      </c>
+      <c r="I10" s="1">
+        <v>46</v>
+      </c>
+      <c r="J10" s="1">
+        <v>31</v>
+      </c>
+      <c r="K10" s="1">
         <v>18</v>
       </c>
-      <c r="D10" s="1">
+      <c r="L10" s="1">
         <v>12</v>
-      </c>
-      <c r="E10" s="1">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1">
-        <v>22</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1">
-        <v>6</v>
-      </c>
-      <c r="J10" s="1">
-        <v>39</v>
-      </c>
-      <c r="K10" s="1">
-        <v>64</v>
-      </c>
-      <c r="L10" s="1">
-        <v>74</v>
       </c>
       <c r="M10" s="1">
         <v>13</v>
       </c>
       <c r="N10" s="1">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="O10" s="1">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="P10" s="1">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="1">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="R10" s="1">
         <v>568</v>
@@ -13086,49 +13087,49 @@
         <v>231</v>
       </c>
       <c r="C11" s="1">
+        <v>398</v>
+      </c>
+      <c r="D11" s="1">
+        <v>582</v>
+      </c>
+      <c r="E11" s="1">
+        <v>802</v>
+      </c>
+      <c r="F11" s="1">
+        <v>160</v>
+      </c>
+      <c r="G11" s="1">
+        <v>990</v>
+      </c>
+      <c r="H11" s="1">
+        <v>550</v>
+      </c>
+      <c r="I11" s="1">
+        <v>293</v>
+      </c>
+      <c r="J11" s="1">
+        <v>256</v>
+      </c>
+      <c r="K11" s="1">
         <v>138</v>
       </c>
-      <c r="D11" s="1">
+      <c r="L11" s="1">
         <v>128</v>
       </c>
-      <c r="E11" s="1">
+      <c r="M11" s="1">
         <v>88</v>
       </c>
-      <c r="F11" s="1">
+      <c r="N11" s="1">
         <v>97</v>
       </c>
-      <c r="G11" s="1">
+      <c r="O11" s="1">
         <v>26</v>
       </c>
-      <c r="H11" s="1">
+      <c r="P11" s="1">
         <v>27</v>
       </c>
-      <c r="I11" s="1">
+      <c r="Q11" s="1">
         <v>33</v>
-      </c>
-      <c r="J11" s="1">
-        <v>398</v>
-      </c>
-      <c r="K11" s="1">
-        <v>582</v>
-      </c>
-      <c r="L11" s="1">
-        <v>802</v>
-      </c>
-      <c r="M11" s="1">
-        <v>160</v>
-      </c>
-      <c r="N11" s="1">
-        <v>990</v>
-      </c>
-      <c r="O11" s="1">
-        <v>550</v>
-      </c>
-      <c r="P11" s="1">
-        <v>293</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>256</v>
       </c>
       <c r="R11" s="1">
         <v>4799</v>
@@ -13142,49 +13143,49 @@
         <v>3352</v>
       </c>
       <c r="C12" s="1">
+        <v>5128</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6994</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9181</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1977</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9470</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8267</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4848</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3143</v>
+      </c>
+      <c r="K12" s="1">
         <v>1955</v>
       </c>
-      <c r="D12" s="1">
+      <c r="L12" s="1">
         <v>1715</v>
       </c>
-      <c r="E12" s="1">
+      <c r="M12" s="1">
         <v>1242</v>
       </c>
-      <c r="F12" s="1">
+      <c r="N12" s="1">
         <v>1906</v>
       </c>
-      <c r="G12" s="1">
+      <c r="O12" s="1">
         <v>385</v>
       </c>
-      <c r="H12" s="1">
+      <c r="P12" s="1">
         <v>359</v>
       </c>
-      <c r="I12" s="1">
+      <c r="Q12" s="1">
         <v>476</v>
-      </c>
-      <c r="J12" s="1">
-        <v>5128</v>
-      </c>
-      <c r="K12" s="1">
-        <v>6994</v>
-      </c>
-      <c r="L12" s="1">
-        <v>9181</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1977</v>
-      </c>
-      <c r="N12" s="1">
-        <v>9470</v>
-      </c>
-      <c r="O12" s="1">
-        <v>8267</v>
-      </c>
-      <c r="P12" s="1">
-        <v>4848</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>3143</v>
       </c>
       <c r="R12" s="1">
         <v>60398</v>
